--- a/Evaluation files/error analysis.xlsx
+++ b/Evaluation files/error analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elmal\Documents\SchoolNotes\CompSci685\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DF7070-52E2-4C29-BA00-CF72B1F81EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88113354-F166-4FD6-8BFD-D1CD9B57D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{59068894-7BE7-4073-8D3D-96B78654A081}"/>
   </bookViews>
@@ -848,9 +848,6 @@
     <t>Certains collèges offrent également des sessions d'été.</t>
   </si>
   <si>
-    <t>In French "collège" refers to high school, not college, the correct translation would be "université"</t>
-  </si>
-  <si>
     <t>Entertainment Riggers - Training Gaps Analysis Report</t>
   </si>
   <si>
@@ -927,6 +924,9 @@
   </si>
   <si>
     <t>Adds extra information that changes meaning - "top" should not mean "top of page"</t>
+  </si>
+  <si>
+    <t>In French "collège" refers to middle/high school, not college, the correct translation would be "université"</t>
   </si>
 </sst>
 </file>
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FB10C2-2B77-4FEA-975B-848410E49904}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2392,106 +2392,106 @@
         <v>269</v>
       </c>
       <c r="C103" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
         <v>271</v>
       </c>
-      <c r="B104" t="s">
-        <v>272</v>
-      </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" t="s">
         <v>273</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>274</v>
-      </c>
-      <c r="C105" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" t="s">
         <v>276</v>
       </c>
-      <c r="B106" t="s">
-        <v>277</v>
-      </c>
       <c r="C106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" t="s">
         <v>280</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>281</v>
-      </c>
-      <c r="C107" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
+        <v>282</v>
+      </c>
+      <c r="B108" t="s">
         <v>283</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>284</v>
-      </c>
-      <c r="C108" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
+        <v>285</v>
+      </c>
+      <c r="B109" t="s">
         <v>286</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>287</v>
-      </c>
-      <c r="C109" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" t="s">
         <v>289</v>
       </c>
-      <c r="B110" t="s">
-        <v>290</v>
-      </c>
       <c r="C110" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" t="s">
         <v>291</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>292</v>
-      </c>
-      <c r="C111" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" t="s">
         <v>294</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>295</v>
-      </c>
-      <c r="C112" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
